--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="114">
   <si>
     <t>&lt;a href="tel:+79699669755"&gt;8 (969) 966-97-55&lt;/a&gt;</t>
   </si>
@@ -33,76 +33,334 @@
     <t>Номер</t>
   </si>
   <si>
-    <t>Кимры</t>
-  </si>
-  <si>
-    <t>Кимрах</t>
-  </si>
-  <si>
-    <t>Конаково</t>
-  </si>
-  <si>
-    <t>Конакове</t>
-  </si>
-  <si>
-    <t>Удомля</t>
-  </si>
-  <si>
-    <t>Удомле</t>
-  </si>
-  <si>
-    <t>Бежецк</t>
-  </si>
-  <si>
-    <t>Бежецке</t>
-  </si>
-  <si>
-    <t>Бологое</t>
-  </si>
-  <si>
-    <t>Нелидово</t>
-  </si>
-  <si>
-    <t>Осташков</t>
-  </si>
-  <si>
-    <t>Осташкове</t>
-  </si>
-  <si>
-    <t>Кашин</t>
-  </si>
-  <si>
-    <t>Кашине</t>
-  </si>
-  <si>
-    <t>Калязин</t>
-  </si>
-  <si>
-    <t>Калязине</t>
-  </si>
-  <si>
-    <t>Торопец</t>
-  </si>
-  <si>
-    <t>Торопце</t>
-  </si>
-  <si>
-    <t>Лихославль</t>
-  </si>
-  <si>
-    <t>Лихославле</t>
-  </si>
-  <si>
-    <t>Озёрный</t>
-  </si>
-  <si>
-    <t>Озёрном</t>
-  </si>
-  <si>
-    <t>Редкино</t>
-  </si>
-  <si>
-    <t>Кувшиново</t>
+    <t>Дмитров</t>
+  </si>
+  <si>
+    <t>Дмитрове</t>
+  </si>
+  <si>
+    <t>Дзержинский</t>
+  </si>
+  <si>
+    <t>Дзержинском</t>
+  </si>
+  <si>
+    <t>Апрелевка</t>
+  </si>
+  <si>
+    <t>Апрелевке</t>
+  </si>
+  <si>
+    <t>Дрожжино</t>
+  </si>
+  <si>
+    <t>Истра</t>
+  </si>
+  <si>
+    <t>Истре</t>
+  </si>
+  <si>
+    <t>Ликино-Дулёво</t>
+  </si>
+  <si>
+    <t>Томилино</t>
+  </si>
+  <si>
+    <t>Дедовск</t>
+  </si>
+  <si>
+    <t>Дедовске</t>
+  </si>
+  <si>
+    <t>Электрогорск</t>
+  </si>
+  <si>
+    <t>Электрогорске</t>
+  </si>
+  <si>
+    <t>Лосино-Петровский</t>
+  </si>
+  <si>
+    <t>Лосино-Петровском</t>
+  </si>
+  <si>
+    <t>Власиха</t>
+  </si>
+  <si>
+    <t>Власихе</t>
+  </si>
+  <si>
+    <t>Мисайлово</t>
+  </si>
+  <si>
+    <t>Мисайлове</t>
+  </si>
+  <si>
+    <t>Путилково</t>
+  </si>
+  <si>
+    <t>Путилкове</t>
+  </si>
+  <si>
+    <t>Свердловский</t>
+  </si>
+  <si>
+    <t>Свердловском</t>
+  </si>
+  <si>
+    <t>Октябрьский</t>
+  </si>
+  <si>
+    <t>Октябрьском</t>
+  </si>
+  <si>
+    <t>Волоколамск</t>
+  </si>
+  <si>
+    <t>Волоколамске</t>
+  </si>
+  <si>
+    <t>Калининец</t>
+  </si>
+  <si>
+    <t>Калининце</t>
+  </si>
+  <si>
+    <t>Озёры</t>
+  </si>
+  <si>
+    <t>Озёрах</t>
+  </si>
+  <si>
+    <t>Старая Купавна</t>
+  </si>
+  <si>
+    <t>Старой Купавне</t>
+  </si>
+  <si>
+    <t>Кубинка</t>
+  </si>
+  <si>
+    <t>Кубинке</t>
+  </si>
+  <si>
+    <t>Тучково</t>
+  </si>
+  <si>
+    <t>Тучкове</t>
+  </si>
+  <si>
+    <t>Голицыно</t>
+  </si>
+  <si>
+    <t>Бронницы</t>
+  </si>
+  <si>
+    <t>Бронницах</t>
+  </si>
+  <si>
+    <t>Рошаль</t>
+  </si>
+  <si>
+    <t>Рошале</t>
+  </si>
+  <si>
+    <t>Монино</t>
+  </si>
+  <si>
+    <t>Монине</t>
+  </si>
+  <si>
+    <t>Хотьково</t>
+  </si>
+  <si>
+    <t>Хотькове</t>
+  </si>
+  <si>
+    <t>Зарайск</t>
+  </si>
+  <si>
+    <t>Зарайске</t>
+  </si>
+  <si>
+    <t>Куровское</t>
+  </si>
+  <si>
+    <t>Куровском</t>
+  </si>
+  <si>
+    <t>Пущино</t>
+  </si>
+  <si>
+    <t>Черноголовка</t>
+  </si>
+  <si>
+    <t>Черноголовке</t>
+  </si>
+  <si>
+    <t>Удельная</t>
+  </si>
+  <si>
+    <t>Удельной</t>
+  </si>
+  <si>
+    <t>Электроугли</t>
+  </si>
+  <si>
+    <t>Электроуглях</t>
+  </si>
+  <si>
+    <t>ВНИИССОК</t>
+  </si>
+  <si>
+    <t>ВНИИССОКе</t>
+  </si>
+  <si>
+    <t>Боброво</t>
+  </si>
+  <si>
+    <t>Боброве</t>
+  </si>
+  <si>
+    <t>им. Воровского</t>
+  </si>
+  <si>
+    <t>Кратово</t>
+  </si>
+  <si>
+    <t>Кратове</t>
+  </si>
+  <si>
+    <t>Лопатино</t>
+  </si>
+  <si>
+    <t>Лопатине</t>
+  </si>
+  <si>
+    <t>Запрудня</t>
+  </si>
+  <si>
+    <t>Запрудне</t>
+  </si>
+  <si>
+    <t>Большие Вязёмы</t>
+  </si>
+  <si>
+    <t>Больших Вязёмах</t>
+  </si>
+  <si>
+    <t>Софрино</t>
+  </si>
+  <si>
+    <t>Ильинский</t>
+  </si>
+  <si>
+    <t>Ильинском</t>
+  </si>
+  <si>
+    <t>Лесной Городок</t>
+  </si>
+  <si>
+    <t>Лесном Городке</t>
+  </si>
+  <si>
+    <t>Селятино</t>
+  </si>
+  <si>
+    <t>Белоозёрский</t>
+  </si>
+  <si>
+    <t>Белоозёрском</t>
+  </si>
+  <si>
+    <t>Новоивановское</t>
+  </si>
+  <si>
+    <t>Новоивановском</t>
+  </si>
+  <si>
+    <t>Бутово</t>
+  </si>
+  <si>
+    <t>Бутове</t>
+  </si>
+  <si>
+    <t>Шаховская</t>
+  </si>
+  <si>
+    <t>Шаховской</t>
+  </si>
+  <si>
+    <t>Фряново</t>
+  </si>
+  <si>
+    <t>Фрянове</t>
+  </si>
+  <si>
+    <t>Молоково</t>
+  </si>
+  <si>
+    <t>Молокове</t>
+  </si>
+  <si>
+    <t>Заречье</t>
+  </si>
+  <si>
+    <t>Михнево</t>
+  </si>
+  <si>
+    <t>Михневе</t>
+  </si>
+  <si>
+    <t>Некрасовский</t>
+  </si>
+  <si>
+    <t>Некрасовском</t>
+  </si>
+  <si>
+    <t>Андреевка</t>
+  </si>
+  <si>
+    <t>Андреевке</t>
+  </si>
+  <si>
+    <t>Загорянский</t>
+  </si>
+  <si>
+    <t>Загорянском</t>
+  </si>
+  <si>
+    <t>Вербилки</t>
+  </si>
+  <si>
+    <t>Вербилках</t>
+  </si>
+  <si>
+    <t>Лесной</t>
+  </si>
+  <si>
+    <t>Лесном</t>
+  </si>
+  <si>
+    <t>Правдинский</t>
+  </si>
+  <si>
+    <t>Правдинском</t>
+  </si>
+  <si>
+    <t>Богородское</t>
+  </si>
+  <si>
+    <t>Богородском</t>
+  </si>
+  <si>
+    <t>Отрадное</t>
+  </si>
+  <si>
+    <t>Отрадном</t>
+  </si>
+  <si>
+    <t>Марусино</t>
   </si>
 </sst>
 </file>
@@ -461,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -523,7 +781,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -531,7 +789,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
@@ -556,7 +814,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -564,10 +822,10 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1">
       <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -575,10 +833,10 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1">
       <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
@@ -586,10 +844,10 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1">
       <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
@@ -597,10 +855,10 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1">
       <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
@@ -608,10 +866,10 @@
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1">
       <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
@@ -619,7 +877,7 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>26</v>
@@ -633,9 +891,515 @@
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A55" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A56" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A57" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A58" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A59" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A60" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A61" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>0</v>
       </c>
     </row>
